--- a/Documentation/jew cleanup crew asset moscow list version 1.xlsx
+++ b/Documentation/jew cleanup crew asset moscow list version 1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="41">
   <si>
     <t>Asset list:</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Val</t>
+  </si>
+  <si>
+    <t>Roel</t>
   </si>
 </sst>
 </file>
@@ -344,7 +347,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -379,7 +382,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -590,18 +593,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" customWidth="1"/>
+    <col min="9" max="9" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="31.5" x14ac:dyDescent="0.5">
@@ -613,13 +616,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="J4" s="6"/>
       <c r="K4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -644,7 +647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -664,7 +667,9 @@
         <v>38</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F7" s="4" t="s">
         <v>39</v>
       </c>
@@ -702,7 +707,9 @@
         <v>38</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="F9" s="4" t="s">
         <v>39</v>
       </c>
@@ -718,7 +725,9 @@
         <v>38</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="F10" s="4" t="s">
         <v>39</v>
       </c>
@@ -738,7 +747,9 @@
         <v>38</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="F11" s="4" t="s">
         <v>39</v>
       </c>
@@ -754,7 +765,9 @@
         <v>38</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="F12" s="4" t="s">
         <v>39</v>
       </c>
@@ -770,7 +783,9 @@
         <v>38</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="F13" s="4" t="s">
         <v>39</v>
       </c>
@@ -786,7 +801,9 @@
         <v>38</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="F14" s="4" t="s">
         <v>39</v>
       </c>
@@ -802,7 +819,9 @@
         <v>38</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="F15" s="4" t="s">
         <v>39</v>
       </c>
@@ -818,7 +837,9 @@
         <v>38</v>
       </c>
       <c r="D16" s="10"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F16" s="4" t="s">
         <v>39</v>
       </c>
@@ -826,7 +847,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
@@ -834,7 +855,9 @@
         <v>38</v>
       </c>
       <c r="D17" s="10"/>
-      <c r="E17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F17" s="4" t="s">
         <v>39</v>
       </c>
@@ -842,7 +865,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
@@ -850,7 +873,9 @@
         <v>38</v>
       </c>
       <c r="D18" s="10"/>
-      <c r="E18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F18" s="4" t="s">
         <v>39</v>
       </c>
@@ -858,7 +883,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
@@ -866,7 +891,9 @@
         <v>38</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F19" s="4" t="s">
         <v>39</v>
       </c>
@@ -874,7 +901,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
@@ -882,7 +909,9 @@
         <v>38</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F20" s="4" t="s">
         <v>39</v>
       </c>
@@ -890,7 +919,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
@@ -898,7 +927,9 @@
         <v>38</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F21" s="4" t="s">
         <v>39</v>
       </c>
@@ -906,7 +937,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
@@ -914,7 +945,9 @@
         <v>38</v>
       </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="F22" s="4" t="s">
         <v>39</v>
       </c>
@@ -922,7 +955,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>32</v>
       </c>
@@ -930,7 +963,9 @@
         <v>38</v>
       </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="F23" s="4" t="s">
         <v>39</v>
       </c>
@@ -938,7 +973,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>33</v>
       </c>
@@ -956,7 +991,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
         <v>34</v>
       </c>
@@ -974,7 +1009,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>35</v>
       </c>
@@ -992,7 +1027,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>36</v>
       </c>
@@ -1010,7 +1045,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
         <v>37</v>
       </c>
@@ -1028,41 +1063,41 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
@@ -1078,7 +1113,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1090,7 +1125,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
